--- a/Inputs/Poll-1.xlsx
+++ b/Inputs/Poll-1.xlsx
@@ -35,7 +35,7 @@
     <t>categoryName</t>
   </si>
   <si>
-    <t>Poll1-130120</t>
+    <t>Poll1-230120</t>
   </si>
   <si>
     <t>A</t>
@@ -47,13 +47,13 @@
     <t>C</t>
   </si>
   <si>
-    <t>Public</t>
+    <t>All Inside Track Members</t>
   </si>
   <si>
     <t>Planning &amp; Strategy</t>
   </si>
   <si>
-    <t>Poll2-130120</t>
+    <t>Poll2-230120</t>
   </si>
   <si>
     <t>Test Group</t>
@@ -62,7 +62,7 @@
     <t>Emerging Technologies</t>
   </si>
   <si>
-    <t>Poll3-130120</t>
+    <t>Poll3-230120</t>
   </si>
   <si>
     <t>Uptime External</t>
@@ -71,7 +71,7 @@
     <t>Staffing &amp; Training</t>
   </si>
   <si>
-    <t>Poll4-130120</t>
+    <t>Poll4-230120</t>
   </si>
   <si>
     <t>Uptime Institute Network</t>
@@ -80,7 +80,7 @@
     <t>Management Technology</t>
   </si>
   <si>
-    <t>Poll5-130120</t>
+    <t>Poll5-230120</t>
   </si>
   <si>
     <t>UI Network (Spanish)</t>
@@ -89,7 +89,7 @@
     <t>Risk &amp; Resiliency</t>
   </si>
   <si>
-    <t>Poll6-130120</t>
+    <t>Poll6-230120</t>
   </si>
   <si>
     <t>Internal Admin Group</t>
@@ -98,7 +98,7 @@
     <t>New Builds &amp; Equipment</t>
   </si>
   <si>
-    <t>Poll7-130120</t>
+    <t>Poll7-230120</t>
   </si>
   <si>
     <t>SomeEmails</t>
@@ -1346,7 +1346,8 @@
   <cols>
     <col min="1" max="1" width="17.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.3516" style="1" customWidth="1"/>
-    <col min="3" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.1719" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.8516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
